--- a/Ghost/DB엑셀파일/WASDB설계 190905.xlsx
+++ b/Ghost/DB엑셀파일/WASDB설계 190905.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="401">
   <si>
     <t>사원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1165,10 +1165,6 @@
   </si>
   <si>
     <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1575,6 +1571,22 @@
   <si>
     <t>바지 테이블
 순서PK를 두어서 기록을 유지하는 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1726,20 +1738,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3123,8 +3135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3150,116 +3162,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="L1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="L1" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -3275,7 +3287,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="17" t="s">
         <v>141</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -3307,7 +3319,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="17"/>
+      <c r="H9" s="18"/>
       <c r="L9" s="2" t="s">
         <v>3</v>
       </c>
@@ -3335,7 +3347,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>397</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -3357,7 +3369,7 @@
         <v>7</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>8</v>
+        <v>397</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>9</v>
@@ -3381,7 +3393,7 @@
         <v>276</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>16</v>
@@ -3401,7 +3413,7 @@
         <v>276</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>16</v>
@@ -3423,7 +3435,7 @@
         <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>288</v>
+        <v>398</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>279</v>
@@ -3443,7 +3455,7 @@
         <v>55</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>17</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3465,7 +3477,7 @@
         <v>275</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>279</v>
@@ -3487,7 +3499,7 @@
         <v>275</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>279</v>
@@ -3509,7 +3521,7 @@
         <v>275</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>279</v>
@@ -3547,7 +3559,7 @@
         <v>275</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>279</v>
@@ -3581,7 +3593,7 @@
         <v>275</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>279</v>
@@ -3601,7 +3613,7 @@
         <v>7</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>8</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>9</v>
@@ -3625,7 +3637,7 @@
         <v>280</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3643,7 +3655,7 @@
         <v>95</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>133</v>
+        <v>286</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>62</v>
@@ -3665,7 +3677,7 @@
         <v>280</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3683,7 +3695,7 @@
         <v>55</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>17</v>
+        <v>286</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3705,7 +3717,7 @@
         <v>281</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3733,7 +3745,7 @@
         <v>281</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3753,7 +3765,7 @@
         <v>282</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3789,7 +3801,7 @@
         <v>281</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3821,7 +3833,7 @@
         <v>281</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3839,7 +3851,7 @@
         <v>7</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>8</v>
+        <v>397</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>9</v>
@@ -3863,7 +3875,7 @@
         <v>281</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3881,7 +3893,7 @@
         <v>95</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>17</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>16</v>
@@ -3903,7 +3915,7 @@
         <v>283</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>279</v>
@@ -3923,7 +3935,7 @@
         <v>55</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>17</v>
+        <v>286</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -3945,7 +3957,7 @@
         <v>280</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -3975,7 +3987,7 @@
         <v>277</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3995,7 +4007,7 @@
         <v>275</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>285</v>
+        <v>398</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -4009,7 +4021,7 @@
         <v>230</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -4047,7 +4059,7 @@
         <v>7</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>8</v>
+        <v>397</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>9</v>
@@ -4065,16 +4077,16 @@
         <v>232</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4087,13 +4099,13 @@
         <v>233</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -4109,7 +4121,7 @@
         <v>209</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -4140,7 +4152,7 @@
         <v>235</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -4164,7 +4176,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>8</v>
+        <v>397</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>9</v>
@@ -4194,16 +4206,16 @@
         <v>158</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>286</v>
+        <v>400</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -4214,13 +4226,13 @@
         <v>11</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>8</v>
+        <v>397</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>9</v>
@@ -4238,16 +4250,16 @@
         <v>161</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>286</v>
+        <v>400</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -4258,16 +4270,16 @@
         <v>237</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4277,16 +4289,16 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>284</v>
+        <v>398</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -4299,13 +4311,13 @@
         <v>238</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -4322,13 +4334,13 @@
         <v>211</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>284</v>
+        <v>398</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -4342,13 +4354,13 @@
         <v>213</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>284</v>
+        <v>398</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -4362,13 +4374,13 @@
         <v>212</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>284</v>
+        <v>398</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -4380,7 +4392,7 @@
         <v>240</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -4418,7 +4430,7 @@
         <v>7</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>8</v>
+        <v>397</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>9</v>
@@ -4436,16 +4448,16 @@
         <v>242</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -4458,13 +4470,13 @@
         <v>240</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -4482,7 +4494,7 @@
         <v>245</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -4520,7 +4532,7 @@
         <v>7</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>8</v>
+        <v>397</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>9</v>
@@ -4538,16 +4550,16 @@
         <v>247</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
@@ -4560,13 +4572,13 @@
         <v>248</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -4590,7 +4602,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="16" t="s">
+      <c r="H58" s="17" t="s">
         <v>141</v>
       </c>
       <c r="L58" s="2" t="s">
@@ -4600,13 +4612,13 @@
         <v>169</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
-      <c r="S58" s="16" t="s">
+      <c r="S58" s="17" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4622,7 +4634,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
-      <c r="H59" s="17"/>
+      <c r="H59" s="18"/>
       <c r="L59" s="2" t="s">
         <v>3</v>
       </c>
@@ -4634,7 +4646,7 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
-      <c r="S59" s="17"/>
+      <c r="S59" s="18"/>
     </row>
     <row r="60" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
@@ -4672,7 +4684,7 @@
         <v>7</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>8</v>
+        <v>397</v>
       </c>
       <c r="Q60" s="1" t="s">
         <v>9</v>
@@ -4690,16 +4702,16 @@
         <v>158</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>286</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -4710,16 +4722,16 @@
         <v>159</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
@@ -4732,16 +4744,16 @@
         <v>161</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>286</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -4752,13 +4764,13 @@
         <v>171</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -4774,10 +4786,10 @@
         <v>164</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>284</v>
@@ -4794,10 +4806,10 @@
         <v>163</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>284</v>
@@ -4814,16 +4826,16 @@
         <v>159</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>286</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -4852,16 +4864,16 @@
         <v>160</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>286</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -4886,10 +4898,10 @@
         <v>162</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>284</v>
@@ -4910,7 +4922,7 @@
         <v>7</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>8</v>
+        <v>397</v>
       </c>
       <c r="Q67" s="1" t="s">
         <v>9</v>
@@ -4925,13 +4937,13 @@
         <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>284</v>
@@ -4946,16 +4958,16 @@
         <v>160</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -4968,13 +4980,13 @@
         <v>168</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -4999,7 +5011,7 @@
         <v>178</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5055,16 +5067,16 @@
         <v>158</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>286</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -5077,16 +5089,16 @@
         <v>160</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>286</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -5099,10 +5111,10 @@
         <v>180</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>284</v>
@@ -5116,19 +5128,19 @@
         <v>5</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>286</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -5141,10 +5153,10 @@
         <v>181</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>286</v>
@@ -5158,13 +5170,13 @@
         <v>7</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>286</v>
@@ -5183,7 +5195,7 @@
         <v>214</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5239,16 +5251,16 @@
         <v>158</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>285</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -5261,7 +5273,7 @@
         <v>161</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>283</v>
@@ -5292,7 +5304,7 @@
         <v>285</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -5305,7 +5317,7 @@
         <v>217</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>281</v>
@@ -5325,7 +5337,7 @@
         <v>218</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>281</v>
@@ -5345,10 +5357,10 @@
         <v>164</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>285</v>
@@ -5365,7 +5377,7 @@
         <v>219</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>280</v>
@@ -5385,7 +5397,7 @@
         <v>220</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>280</v>
@@ -5405,7 +5417,7 @@
         <v>249</v>
       </c>
       <c r="AL102" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AM102" s="2"/>
       <c r="AN102" s="2"/>
@@ -5459,7 +5471,7 @@
         <v>221</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -5475,7 +5487,7 @@
         <v>225</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -5491,16 +5503,16 @@
         <v>158</v>
       </c>
       <c r="AL105" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AM105" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AN105" s="1" t="s">
         <v>285</v>
       </c>
       <c r="AO105" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AP105" s="1"/>
       <c r="AQ105" s="1"/>
@@ -5537,10 +5549,10 @@
         <v>250</v>
       </c>
       <c r="AL106" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AM106" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AN106" s="1" t="s">
         <v>285</v>
@@ -5601,10 +5613,10 @@
         <v>161</v>
       </c>
       <c r="AL107" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AM107" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AN107" s="1" t="s">
         <v>285</v>
@@ -5614,23 +5626,23 @@
       <c r="AQ107" s="1"/>
     </row>
     <row r="108" spans="1:43" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="18">
+      <c r="A108" s="16">
         <v>1</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>286</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -5641,16 +5653,16 @@
         <v>223</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P108" s="1" t="s">
         <v>285</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
@@ -5661,10 +5673,10 @@
         <v>251</v>
       </c>
       <c r="AL108" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AM108" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AN108" s="1" t="s">
         <v>285</v>
@@ -5672,7 +5684,7 @@
       <c r="AO108" s="1"/>
       <c r="AP108" s="1"/>
       <c r="AQ108" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="109" spans="1:43" x14ac:dyDescent="0.3">
@@ -5683,10 +5695,10 @@
         <v>224</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>286</v>
@@ -5701,10 +5713,10 @@
         <v>227</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P109" s="1" t="s">
         <v>285</v>
@@ -5723,10 +5735,10 @@
         <v>205</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>286</v>
@@ -5740,13 +5752,13 @@
         <v>4</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>284</v>
@@ -5762,19 +5774,19 @@
         <v>5</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>286</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -5790,19 +5802,19 @@
         <v>5</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>286</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -6004,7 +6016,7 @@
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.3">
@@ -6118,7 +6130,7 @@
         <v>206</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
@@ -6208,16 +6220,16 @@
         <v>21</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E132" s="1" t="s">
         <v>287</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -6228,16 +6240,16 @@
         <v>203</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P132" s="1" t="s">
         <v>285</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
@@ -6250,7 +6262,7 @@
         <v>201</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>281</v>
@@ -6271,10 +6283,10 @@
         <v>208</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P133" s="1" t="s">
         <v>285</v>
@@ -6305,7 +6317,7 @@
         <v>202</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>281</v>
@@ -6325,7 +6337,7 @@
         <v>203</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>275</v>
@@ -6334,7 +6346,7 @@
         <v>287</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -6347,7 +6359,7 @@
         <v>204</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>275</v>
@@ -6367,7 +6379,7 @@
         <v>205</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>281</v>
@@ -7072,7 +7084,7 @@
         <v>104</v>
       </c>
       <c r="Z165" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AA165" s="1" t="s">
         <v>18</v>
@@ -7227,7 +7239,7 @@
         <v>252</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>280</v>
@@ -7529,7 +7541,7 @@
         <v>253</v>
       </c>
       <c r="Y182" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
@@ -7639,16 +7651,16 @@
         <v>255</v>
       </c>
       <c r="Y185" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Z185" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AA185" s="1" t="s">
         <v>285</v>
       </c>
       <c r="AB185" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AC185" s="1"/>
       <c r="AD185" s="1"/>
@@ -7679,10 +7691,10 @@
         <v>256</v>
       </c>
       <c r="Y186" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Z186" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AA186" s="1" t="s">
         <v>285</v>
@@ -7690,7 +7702,7 @@
       <c r="AB186" s="1"/>
       <c r="AC186" s="1"/>
       <c r="AD186" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.3">
@@ -7698,10 +7710,10 @@
         <v>3</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>55</v>
@@ -7718,10 +7730,10 @@
         <v>2</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -7736,7 +7748,7 @@
         <v>3</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -7777,7 +7789,7 @@
         <v>21</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>72</v>
@@ -7796,10 +7808,10 @@
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>95</v>
@@ -7818,10 +7830,10 @@
         <v>3</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>57</v>
@@ -7838,10 +7850,10 @@
         <v>4</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>57</v>
@@ -7872,7 +7884,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/Ghost/DB엑셀파일/WASDB설계 190905.xlsx
+++ b/Ghost/DB엑셀파일/WASDB설계 190905.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="402">
   <si>
     <t>사원</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1047,10 +1047,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dept_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>military_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1063,59 +1059,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>posit_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>leave_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>emp_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emp_engname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resident_no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>emp_hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>emp_addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_indate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_outdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>emp_pw</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bank_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sal_account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>emp_photo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>emp_zipcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1587,6 +1543,54 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_engname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resident_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_zipcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_indate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emp_outdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sal_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bank_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dept_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rank_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>posit_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3135,8 +3139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3163,7 +3167,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3173,7 +3177,7 @@
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="L1" s="19" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="M1" s="20"/>
       <c r="N1" s="20"/>
@@ -3347,7 +3351,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -3369,7 +3373,7 @@
         <v>7</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>9</v>
@@ -3387,13 +3391,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>16</v>
@@ -3410,10 +3414,10 @@
         <v>67</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>16</v>
@@ -3429,16 +3433,16 @@
         <v>183</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>260</v>
+        <v>399</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3455,7 +3459,7 @@
         <v>55</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -3471,16 +3475,16 @@
         <v>184</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>257</v>
+        <v>398</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -3493,16 +3497,16 @@
         <v>185</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -3515,16 +3519,16 @@
         <v>186</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3553,16 +3557,16 @@
         <v>187</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>261</v>
+        <v>400</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -3587,16 +3591,16 @@
         <v>188</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>262</v>
+        <v>401</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -3613,7 +3617,7 @@
         <v>7</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>9</v>
@@ -3631,13 +3635,13 @@
         <v>189</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -3655,7 +3659,7 @@
         <v>95</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>62</v>
@@ -3671,13 +3675,13 @@
         <v>190</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>264</v>
+        <v>390</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3695,7 +3699,7 @@
         <v>55</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -3711,13 +3715,13 @@
         <v>191</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>265</v>
+        <v>391</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -3739,13 +3743,13 @@
         <v>192</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3759,13 +3763,13 @@
         <v>193</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>267</v>
+        <v>393</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3795,13 +3799,13 @@
         <v>194</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>268</v>
+        <v>394</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3827,13 +3831,13 @@
         <v>195</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>269</v>
+        <v>395</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3851,7 +3855,7 @@
         <v>7</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>9</v>
@@ -3869,13 +3873,13 @@
         <v>196</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="E25" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3893,7 +3897,7 @@
         <v>95</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>16</v>
@@ -3909,16 +3913,16 @@
         <v>197</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>271</v>
+        <v>397</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -3935,7 +3939,7 @@
         <v>55</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -3951,13 +3955,13 @@
         <v>198</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>272</v>
+        <v>396</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -3981,13 +3985,13 @@
         <v>199</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -4001,13 +4005,13 @@
         <v>200</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>274</v>
+        <v>392</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -4021,7 +4025,7 @@
         <v>230</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -4059,7 +4063,7 @@
         <v>7</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>9</v>
@@ -4077,16 +4081,16 @@
         <v>232</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
@@ -4099,13 +4103,13 @@
         <v>233</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -4121,7 +4125,7 @@
         <v>209</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -4152,7 +4156,7 @@
         <v>235</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -4176,7 +4180,7 @@
         <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>9</v>
@@ -4206,16 +4210,16 @@
         <v>158</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
@@ -4226,13 +4230,13 @@
         <v>11</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="O39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="Q39" s="1" t="s">
         <v>9</v>
@@ -4250,16 +4254,16 @@
         <v>161</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -4270,16 +4274,16 @@
         <v>237</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
@@ -4289,16 +4293,16 @@
         <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -4311,13 +4315,13 @@
         <v>238</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -4334,13 +4338,13 @@
         <v>211</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -4354,13 +4358,13 @@
         <v>213</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -4374,13 +4378,13 @@
         <v>212</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -4392,7 +4396,7 @@
         <v>240</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -4430,7 +4434,7 @@
         <v>7</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="Q46" s="1" t="s">
         <v>9</v>
@@ -4448,16 +4452,16 @@
         <v>242</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q47" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="R47" s="1"/>
       <c r="S47" s="1"/>
@@ -4470,13 +4474,13 @@
         <v>240</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -4494,7 +4498,7 @@
         <v>245</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -4532,7 +4536,7 @@
         <v>7</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="Q53" s="1" t="s">
         <v>9</v>
@@ -4550,16 +4554,16 @@
         <v>247</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
@@ -4572,13 +4576,13 @@
         <v>248</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="P55" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -4612,7 +4616,7 @@
         <v>169</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -4684,7 +4688,7 @@
         <v>7</v>
       </c>
       <c r="P60" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="Q60" s="1" t="s">
         <v>9</v>
@@ -4702,16 +4706,16 @@
         <v>158</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -4722,16 +4726,16 @@
         <v>159</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="P61" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q61" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
@@ -4744,16 +4748,16 @@
         <v>161</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -4764,13 +4768,13 @@
         <v>171</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="P62" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -4786,13 +4790,13 @@
         <v>164</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -4806,13 +4810,13 @@
         <v>163</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -4826,16 +4830,16 @@
         <v>159</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
@@ -4864,16 +4868,16 @@
         <v>160</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
@@ -4898,13 +4902,13 @@
         <v>162</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -4922,7 +4926,7 @@
         <v>7</v>
       </c>
       <c r="P67" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="Q67" s="1" t="s">
         <v>9</v>
@@ -4937,16 +4941,16 @@
         <v>8</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -4958,16 +4962,16 @@
         <v>160</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="P68" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q68" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -4980,13 +4984,13 @@
         <v>168</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="P69" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -5011,7 +5015,7 @@
         <v>178</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -5067,16 +5071,16 @@
         <v>158</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
@@ -5089,16 +5093,16 @@
         <v>160</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
@@ -5111,13 +5115,13 @@
         <v>180</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -5128,19 +5132,19 @@
         <v>5</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -5153,13 +5157,13 @@
         <v>181</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -5170,16 +5174,16 @@
         <v>7</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -5195,7 +5199,7 @@
         <v>214</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -5251,16 +5255,16 @@
         <v>158</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
@@ -5273,16 +5277,16 @@
         <v>161</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
@@ -5295,16 +5299,16 @@
         <v>216</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
@@ -5317,13 +5321,13 @@
         <v>217</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -5337,13 +5341,13 @@
         <v>218</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -5357,13 +5361,13 @@
         <v>164</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -5377,13 +5381,13 @@
         <v>219</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -5397,13 +5401,13 @@
         <v>220</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -5417,7 +5421,7 @@
         <v>249</v>
       </c>
       <c r="AL102" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="AM102" s="2"/>
       <c r="AN102" s="2"/>
@@ -5471,7 +5475,7 @@
         <v>221</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -5487,7 +5491,7 @@
         <v>225</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -5503,16 +5507,16 @@
         <v>158</v>
       </c>
       <c r="AL105" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="AM105" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="AN105" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AO105" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AP105" s="1"/>
       <c r="AQ105" s="1"/>
@@ -5549,13 +5553,13 @@
         <v>250</v>
       </c>
       <c r="AL106" s="1" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="AM106" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="AN106" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AO106" s="1"/>
       <c r="AP106" s="1"/>
@@ -5613,13 +5617,13 @@
         <v>161</v>
       </c>
       <c r="AL107" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="AM107" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="AN107" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AO107" s="1"/>
       <c r="AP107" s="1"/>
@@ -5633,16 +5637,16 @@
         <v>158</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
@@ -5653,16 +5657,16 @@
         <v>223</v>
       </c>
       <c r="N108" s="1" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="P108" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q108" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
@@ -5673,18 +5677,18 @@
         <v>251</v>
       </c>
       <c r="AL108" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="AM108" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="AN108" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AO108" s="1"/>
       <c r="AP108" s="1"/>
       <c r="AQ108" s="1" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
     </row>
     <row r="109" spans="1:43" x14ac:dyDescent="0.3">
@@ -5695,13 +5699,13 @@
         <v>224</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -5713,13 +5717,13 @@
         <v>227</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="P109" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q109" s="1"/>
       <c r="R109" s="1"/>
@@ -5735,13 +5739,13 @@
         <v>205</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -5752,16 +5756,16 @@
         <v>4</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -5774,19 +5778,19 @@
         <v>5</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
@@ -5802,19 +5806,19 @@
         <v>5</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
@@ -5966,7 +5970,7 @@
         <v>129</v>
       </c>
       <c r="O120" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="P120" s="1" t="s">
         <v>17</v>
@@ -6016,7 +6020,7 @@
       <c r="Q121" s="1"/>
       <c r="R121" s="1"/>
       <c r="S121" s="1" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="122" spans="1:31" x14ac:dyDescent="0.3">
@@ -6130,7 +6134,7 @@
         <v>206</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
@@ -6220,16 +6224,16 @@
         <v>21</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -6240,16 +6244,16 @@
         <v>203</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="O132" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="P132" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q132" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="R132" s="1"/>
       <c r="S132" s="1"/>
@@ -6262,13 +6266,13 @@
         <v>201</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F133" s="1"/>
       <c r="G133" s="1"/>
@@ -6283,13 +6287,13 @@
         <v>208</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="O133" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="P133" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
@@ -6317,13 +6321,13 @@
         <v>202</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
@@ -6337,16 +6341,16 @@
         <v>203</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="G135" s="1"/>
       <c r="H135" s="1"/>
@@ -6359,13 +6363,13 @@
         <v>204</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
@@ -6379,13 +6383,13 @@
         <v>205</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
@@ -7084,7 +7088,7 @@
         <v>104</v>
       </c>
       <c r="Z165" s="1" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="AA165" s="1" t="s">
         <v>18</v>
@@ -7239,13 +7243,13 @@
         <v>252</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -7541,7 +7545,7 @@
         <v>253</v>
       </c>
       <c r="Y182" s="2" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="Z182" s="2"/>
       <c r="AA182" s="2"/>
@@ -7651,16 +7655,16 @@
         <v>255</v>
       </c>
       <c r="Y185" s="1" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="Z185" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="AA185" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AB185" s="1" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AC185" s="1"/>
       <c r="AD185" s="1"/>
@@ -7691,18 +7695,18 @@
         <v>256</v>
       </c>
       <c r="Y186" s="1" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="Z186" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="AA186" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="AB186" s="1"/>
       <c r="AC186" s="1"/>
       <c r="AD186" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.3">
@@ -7710,10 +7714,10 @@
         <v>3</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="N187" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>55</v>
@@ -7730,10 +7734,10 @@
         <v>2</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -7748,7 +7752,7 @@
         <v>3</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -7789,7 +7793,7 @@
         <v>21</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>72</v>
@@ -7808,10 +7812,10 @@
         <v>2</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>95</v>
@@ -7830,10 +7834,10 @@
         <v>3</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>57</v>
@@ -7850,10 +7854,10 @@
         <v>4</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>57</v>
